--- a/Raj Chudasama/2022-12-21/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
+++ b/Raj Chudasama/2022-12-21/Home2 Suites by Hilton Fort Worth Northlake/arrivalllandscape_letter.xlsx
@@ -494,280 +494,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
         <v>39</v>
       </c>
     </row>
